--- a/natmiOut/OldD0/LR-pairs_lrc2p/App-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/App-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H2">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I2">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J2">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>871.926263045901</v>
+        <v>1746.216927989611</v>
       </c>
       <c r="R2">
-        <v>871.926263045901</v>
+        <v>15715.9523519065</v>
       </c>
       <c r="S2">
-        <v>0.009527614126228887</v>
+        <v>0.01810526051717649</v>
       </c>
       <c r="T2">
-        <v>0.009527614126228887</v>
+        <v>0.01810526051717649</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H3">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I3">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J3">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>24109.08180276856</v>
+        <v>24981.68769599931</v>
       </c>
       <c r="R3">
-        <v>24109.08180276856</v>
+        <v>224835.1892639938</v>
       </c>
       <c r="S3">
-        <v>0.2634420341372069</v>
+        <v>0.2590170537491782</v>
       </c>
       <c r="T3">
-        <v>0.2634420341372069</v>
+        <v>0.2590170537491782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H4">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I4">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J4">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N4">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q4">
-        <v>3668.617259758188</v>
+        <v>3821.40527464867</v>
       </c>
       <c r="R4">
-        <v>3668.617259758188</v>
+        <v>34392.64747183803</v>
       </c>
       <c r="S4">
-        <v>0.04008729993485605</v>
+        <v>0.03962138777275566</v>
       </c>
       <c r="T4">
-        <v>0.04008729993485605</v>
+        <v>0.03962138777275567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H5">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I5">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J5">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N5">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q5">
-        <v>1637.627368543143</v>
+        <v>3222.38644111604</v>
       </c>
       <c r="R5">
-        <v>1637.627368543143</v>
+        <v>29001.47797004436</v>
       </c>
       <c r="S5">
-        <v>0.0178944967152679</v>
+        <v>0.0334105946794316</v>
       </c>
       <c r="T5">
-        <v>0.0178944967152679</v>
+        <v>0.0334105946794316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H6">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I6">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J6">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N6">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q6">
-        <v>45280.99893761407</v>
+        <v>46100.02939352018</v>
       </c>
       <c r="R6">
-        <v>45280.99893761407</v>
+        <v>414900.2645416816</v>
       </c>
       <c r="S6">
-        <v>0.4947894144404911</v>
+        <v>0.4779778666904217</v>
       </c>
       <c r="T6">
-        <v>0.4947894144404911</v>
+        <v>0.4779778666904219</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H7">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I7">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J7">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N7">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q7">
-        <v>6890.293691008464</v>
+        <v>7051.841237854757</v>
       </c>
       <c r="R7">
-        <v>6890.293691008464</v>
+        <v>63466.57114069281</v>
       </c>
       <c r="S7">
-        <v>0.07529083855667976</v>
+        <v>0.0731154421255778</v>
       </c>
       <c r="T7">
-        <v>0.07529083855667976</v>
+        <v>0.07311544212557781</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H8">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I8">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J8">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N8">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q8">
-        <v>275.6465310779049</v>
+        <v>544.4247250535659</v>
       </c>
       <c r="R8">
-        <v>275.6465310779049</v>
+        <v>4899.822525482094</v>
       </c>
       <c r="S8">
-        <v>0.003012013623915331</v>
+        <v>0.005644746263246413</v>
       </c>
       <c r="T8">
-        <v>0.003012013623915331</v>
+        <v>0.005644746263246414</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H9">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I9">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J9">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N9">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q9">
-        <v>7621.727946571497</v>
+        <v>7788.636244024195</v>
       </c>
       <c r="R9">
-        <v>7621.727946571497</v>
+        <v>70097.72619621774</v>
       </c>
       <c r="S9">
-        <v>0.0832832842955727</v>
+        <v>0.0807547367175792</v>
       </c>
       <c r="T9">
-        <v>0.0832832842955727</v>
+        <v>0.08075473671757921</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H10">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I10">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J10">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N10">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q10">
-        <v>1159.778830347766</v>
+        <v>1191.414126516374</v>
       </c>
       <c r="R10">
-        <v>1159.778830347766</v>
+        <v>10722.72713864737</v>
       </c>
       <c r="S10">
-        <v>0.01267300416978137</v>
+        <v>0.01235291148463288</v>
       </c>
       <c r="T10">
-        <v>0.01267300416978137</v>
+        <v>0.01235291148463288</v>
       </c>
     </row>
   </sheetData>
